--- a/img30/offline-30mv-Layer0-Test3.xlsx
+++ b/img30/offline-30mv-Layer0-Test3.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsubaki/Desktop/Github/zianlab/img30/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEB9E71-771E-F14D-B95D-888A9E8D9779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3618F93A-A23D-354C-A284-60F7F180A7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -185,7 +188,7 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>频率</c:v>
@@ -660,7 +663,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-259D-F54F-B55B-48844709D50C}"/>
+              <c16:uniqueId val="{00000005-F7BC-EA47-BD79-1626798104B2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -673,11 +676,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="79219024"/>
-        <c:axId val="79220672"/>
+        <c:axId val="812603920"/>
+        <c:axId val="812605568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79219024"/>
+        <c:axId val="812603920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -705,7 +708,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79220672"/>
+        <c:crossAx val="812605568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -713,7 +716,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79220672"/>
+        <c:axId val="812605568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -741,7 +744,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79219024"/>
+        <c:crossAx val="812603920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -752,14 +755,8 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -808,6 +805,620 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="7">
+          <cell r="G7">
+            <v>0.57196999999999998</v>
+          </cell>
+          <cell r="H7">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="G8">
+            <v>0.57396999999999998</v>
+          </cell>
+          <cell r="H8">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="G9">
+            <v>0.57596999999999998</v>
+          </cell>
+          <cell r="H9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="G10">
+            <v>0.57796999999999998</v>
+          </cell>
+          <cell r="H10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="G11">
+            <v>0.57996999999999999</v>
+          </cell>
+          <cell r="H11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="G12">
+            <v>0.58196999999999999</v>
+          </cell>
+          <cell r="H12">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="G13">
+            <v>0.58396999999999999</v>
+          </cell>
+          <cell r="H13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="G14">
+            <v>0.58596999999999999</v>
+          </cell>
+          <cell r="H14">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="G15">
+            <v>0.58796999999999999</v>
+          </cell>
+          <cell r="H15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="G16">
+            <v>0.58996999999999999</v>
+          </cell>
+          <cell r="H16">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="G17">
+            <v>0.59197</v>
+          </cell>
+          <cell r="H17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="G18">
+            <v>0.59397</v>
+          </cell>
+          <cell r="H18">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="G19">
+            <v>0.59597</v>
+          </cell>
+          <cell r="H19">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="G20">
+            <v>0.59797</v>
+          </cell>
+          <cell r="H20">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="G21">
+            <v>0.59997</v>
+          </cell>
+          <cell r="H21">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="G22">
+            <v>0.60197000000000001</v>
+          </cell>
+          <cell r="H22">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="G23">
+            <v>0.60397000000000001</v>
+          </cell>
+          <cell r="H23">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="G24">
+            <v>0.60597000000000001</v>
+          </cell>
+          <cell r="H24">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="G25">
+            <v>0.60797000000000001</v>
+          </cell>
+          <cell r="H25">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="G26">
+            <v>0.60997000000000001</v>
+          </cell>
+          <cell r="H26">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="G27">
+            <v>0.61197000000000001</v>
+          </cell>
+          <cell r="H27">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="G28">
+            <v>0.61397000000000002</v>
+          </cell>
+          <cell r="H28">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="G29">
+            <v>0.61597000000000002</v>
+          </cell>
+          <cell r="H29">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="G30">
+            <v>0.61797000000000002</v>
+          </cell>
+          <cell r="H30">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="G31">
+            <v>0.61997000000000002</v>
+          </cell>
+          <cell r="H31">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="G32">
+            <v>0.62197000000000002</v>
+          </cell>
+          <cell r="H32">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="G33">
+            <v>0.62397000000000002</v>
+          </cell>
+          <cell r="H33">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="G34">
+            <v>0.62597000000000003</v>
+          </cell>
+          <cell r="H34">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="G35">
+            <v>0.62797000000000003</v>
+          </cell>
+          <cell r="H35">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="G36">
+            <v>0.62997000000000003</v>
+          </cell>
+          <cell r="H36">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="G37">
+            <v>0.63197000000000003</v>
+          </cell>
+          <cell r="H37">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="G38">
+            <v>0.63397000000000003</v>
+          </cell>
+          <cell r="H38">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="G39">
+            <v>0.63597000000000004</v>
+          </cell>
+          <cell r="H39">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="G40">
+            <v>0.63797000000000004</v>
+          </cell>
+          <cell r="H40">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="G41">
+            <v>0.63997000000000004</v>
+          </cell>
+          <cell r="H41">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="G42">
+            <v>0.64197000000000004</v>
+          </cell>
+          <cell r="H42">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="G43">
+            <v>0.64397000000000004</v>
+          </cell>
+          <cell r="H43">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="G44">
+            <v>0.64597000000000004</v>
+          </cell>
+          <cell r="H44">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="G45">
+            <v>0.64797000000000005</v>
+          </cell>
+          <cell r="H45">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="G46">
+            <v>0.64997000000000005</v>
+          </cell>
+          <cell r="H46">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="G47">
+            <v>0.65197000000000005</v>
+          </cell>
+          <cell r="H47">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="G48">
+            <v>0.65397000000000005</v>
+          </cell>
+          <cell r="H48">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="G49">
+            <v>0.65597000000000005</v>
+          </cell>
+          <cell r="H49">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="G50">
+            <v>0.65797000000000005</v>
+          </cell>
+          <cell r="H50">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="G51">
+            <v>0.65996999999999995</v>
+          </cell>
+          <cell r="H51">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="G52">
+            <v>0.66196999999999995</v>
+          </cell>
+          <cell r="H52">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="G53">
+            <v>0.66396999999999995</v>
+          </cell>
+          <cell r="H53">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="G54">
+            <v>0.66596999999999995</v>
+          </cell>
+          <cell r="H54">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="G55">
+            <v>0.66796999999999995</v>
+          </cell>
+          <cell r="H55">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="G56">
+            <v>0.66996999999999995</v>
+          </cell>
+          <cell r="H56">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="G57">
+            <v>0.67196999999999996</v>
+          </cell>
+          <cell r="H57">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="G58">
+            <v>0.67396999999999996</v>
+          </cell>
+          <cell r="H58">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="G59">
+            <v>0.67596999999999996</v>
+          </cell>
+          <cell r="H59">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="G60">
+            <v>0.67796999999999996</v>
+          </cell>
+          <cell r="H60">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="G61">
+            <v>0.67996999999999996</v>
+          </cell>
+          <cell r="H61">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="G62">
+            <v>0.68196999999999997</v>
+          </cell>
+          <cell r="H62">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="G63">
+            <v>0.68396999999999997</v>
+          </cell>
+          <cell r="H63">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="G64">
+            <v>0.68596999999999997</v>
+          </cell>
+          <cell r="H64">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="G65">
+            <v>0.68796999999999997</v>
+          </cell>
+          <cell r="H65">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="G66">
+            <v>0.68996999999999997</v>
+          </cell>
+          <cell r="H66">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="G67">
+            <v>0.69196999999999997</v>
+          </cell>
+          <cell r="H67">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="G68">
+            <v>0.69396999999999998</v>
+          </cell>
+          <cell r="H68">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="G69">
+            <v>0.69596999999999998</v>
+          </cell>
+          <cell r="H69">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="G70">
+            <v>0.69796999999999998</v>
+          </cell>
+          <cell r="H70">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="G71">
+            <v>0.69996999999999998</v>
+          </cell>
+          <cell r="H71">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="G72">
+            <v>0.70196999999999998</v>
+          </cell>
+          <cell r="H72">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="G73">
+            <v>0.70396999999999998</v>
+          </cell>
+          <cell r="H73">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="G74">
+            <v>0.70596999999999999</v>
+          </cell>
+          <cell r="H74">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="G75">
+            <v>0.70796999999999999</v>
+          </cell>
+          <cell r="H75">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="G76">
+            <v>0.70996999999999999</v>
+          </cell>
+          <cell r="H76">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="G77">
+            <v>0.71196999999999999</v>
+          </cell>
+          <cell r="H77">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="G78">
+            <v>0.71396999999999999</v>
+          </cell>
+          <cell r="H78">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="G79">
+            <v>0.71597</v>
+          </cell>
+          <cell r="H79">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="G80">
+            <v>0.71797</v>
+          </cell>
+          <cell r="H80">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="G81" t="str">
+            <v>其他</v>
+          </cell>
+          <cell r="H81">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1097,8 +1708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H77"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="T37" sqref="T37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
